--- a/doc/30_詳細設計/01_画面系/【CS】詳細設計-メッセージ定義書.xlsx
+++ b/doc/30_詳細設計/01_画面系/【CS】詳細設計-メッセージ定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\30_詳細設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE2BDC7A-A4CE-48B3-A3A1-E243CE8A7198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB92A6B5-F4DC-44CB-A21D-E99AB3A7652E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -322,83 +322,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>CUSER000203</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CUSER000205</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>CUSER000202</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CUSER000204</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CUSER000206</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <t>CUSER000103</t>
@@ -573,12 +498,89 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <t>CUSER00020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>CUSER00020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>CUSER000203</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CUSER000204</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CUSER000205</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,6 +665,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1359,7 +1368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1471,6 +1480,27 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1498,49 +1528,67 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1552,6 +1600,27 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1612,132 +1681,96 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1746,33 +1779,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2128,7 +2134,7 @@
   </sheetPr>
   <dimension ref="E6:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
@@ -2139,240 +2145,240 @@
   <sheetData>
     <row r="6" spans="5:20" ht="18.600000000000001" thickBot="1"/>
     <row r="7" spans="5:20" ht="18" customHeight="1">
-      <c r="E7" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="43"/>
+      <c r="E7" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="50"/>
     </row>
     <row r="8" spans="5:20" ht="18" customHeight="1">
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="46"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="53"/>
     </row>
     <row r="9" spans="5:20" ht="18" customHeight="1">
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="46"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="53"/>
     </row>
     <row r="10" spans="5:20" ht="18" customHeight="1">
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="46"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="53"/>
     </row>
     <row r="11" spans="5:20" ht="18" customHeight="1">
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="46"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="53"/>
     </row>
     <row r="12" spans="5:20" ht="18" customHeight="1">
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="46"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="53"/>
     </row>
     <row r="13" spans="5:20" ht="18" customHeight="1">
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="46"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="53"/>
     </row>
     <row r="14" spans="5:20" ht="18" customHeight="1">
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="46"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="53"/>
     </row>
     <row r="15" spans="5:20" ht="18" customHeight="1">
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="46"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="53"/>
     </row>
     <row r="16" spans="5:20" ht="18" customHeight="1">
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="46"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="53"/>
     </row>
     <row r="17" spans="5:20" ht="18" customHeight="1">
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="46"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="53"/>
     </row>
     <row r="18" spans="5:20" ht="18" customHeight="1">
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="46"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="53"/>
     </row>
     <row r="19" spans="5:20" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="49"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2429,7 +2435,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F3" s="7">
         <v>45041</v>
@@ -2666,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5ABB0B6-41E7-4951-98AC-3F8C79ECD689}">
   <dimension ref="C1:Z52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:F16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
@@ -2692,230 +2698,230 @@
   <sheetData>
     <row r="1" spans="3:26" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="3:26" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="71"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="91"/>
     </row>
     <row r="3" spans="3:26" ht="38.549999999999997" customHeight="1" thickBot="1">
       <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73"/>
+      <c r="D3" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="93"/>
       <c r="H3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="73"/>
+      <c r="I3" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="92"/>
+      <c r="K3" s="93"/>
       <c r="L3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="72" t="str">
+      <c r="M3" s="92" t="str">
         <f>履歴情報!E3</f>
         <v>EB　熊文倩</v>
       </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="73"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="93"/>
       <c r="Q3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="80">
+      <c r="R3" s="100">
         <f>履歴情報!F3</f>
         <v>45041</v>
       </c>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="81"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="101"/>
     </row>
     <row r="4" spans="3:26" ht="13.8" customHeight="1" thickBot="1">
       <c r="C4" s="8"/>
       <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="3:26">
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76" t="s">
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76" t="s">
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="82" t="s">
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="83"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="76" t="s">
+      <c r="N5" s="103"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="76" t="s">
+      <c r="Q5" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76" t="s">
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76" t="s">
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="77"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="97"/>
     </row>
     <row r="6" spans="3:26" ht="18.600000000000001" thickBot="1">
-      <c r="C6" s="75"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="79"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="99"/>
     </row>
     <row r="7" spans="3:26" ht="34.950000000000003" customHeight="1">
       <c r="C7" s="35">
         <v>1</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="91" t="s">
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="56" t="s">
+      <c r="H7" s="85"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="91" t="s">
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="92"/>
-      <c r="O7" s="93"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="86"/>
       <c r="P7" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="92"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="92" t="s">
+      <c r="R7" s="85"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="92"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="90"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="83"/>
     </row>
     <row r="8" spans="3:26" ht="34.950000000000003" customHeight="1">
       <c r="C8" s="37">
         <v>2</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="53" t="s">
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="57" t="s">
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="63" t="s">
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
       <c r="P8" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63" t="s">
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
       <c r="W8" s="32"/>
       <c r="X8" s="31"/>
       <c r="Y8" s="31"/>
@@ -2925,39 +2931,39 @@
       <c r="C9" s="37">
         <v>3</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="53" t="s">
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="63" t="s">
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="50" t="s">
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="51"/>
-      <c r="O9" s="52"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="115"/>
       <c r="P9" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
       <c r="W9" s="32"/>
       <c r="X9" s="31"/>
       <c r="Y9" s="31"/>
@@ -2967,427 +2973,427 @@
       <c r="C10" s="37">
         <v>4</v>
       </c>
-      <c r="D10" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56" t="s">
+      <c r="D10" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="76"/>
+    </row>
+    <row r="11" spans="3:26" ht="34.950000000000003" customHeight="1">
+      <c r="C11" s="42">
+        <v>5</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="72"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="108"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="76"/>
+    </row>
+    <row r="12" spans="3:26" ht="34.950000000000003" customHeight="1">
+      <c r="C12" s="42">
+        <v>6</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="60"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="U10" s="63"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="96"/>
-    </row>
-    <row r="11" spans="3:26" ht="34.950000000000003" customHeight="1">
-      <c r="C11" s="110">
-        <v>5</v>
-      </c>
-      <c r="D11" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="115"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="97" t="s">
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="R12" s="112"/>
+      <c r="S12" s="112"/>
+      <c r="T12" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="U11" s="63"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="96"/>
-    </row>
-    <row r="12" spans="3:26" ht="34.950000000000003" customHeight="1">
-      <c r="C12" s="110">
-        <v>6</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="112"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="112"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="112"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12" s="105"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="106" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q12" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="R12" s="107"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="U12" s="63"/>
-      <c r="V12" s="63"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
       <c r="W12" s="32"/>
       <c r="X12" s="31"/>
       <c r="Y12" s="31"/>
       <c r="Z12" s="33"/>
     </row>
     <row r="13" spans="3:26" ht="34.950000000000003" customHeight="1">
-      <c r="C13" s="110">
+      <c r="C13" s="42">
         <v>7</v>
       </c>
-      <c r="D13" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="112"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="53" t="s">
+      <c r="D13" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="112"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="112" t="s">
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="112"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
       <c r="P13" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q13" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="U13" s="63"/>
-      <c r="V13" s="63"/>
+        <v>37</v>
+      </c>
+      <c r="Q13" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
       <c r="W13" s="32"/>
       <c r="X13" s="31"/>
       <c r="Y13" s="31"/>
       <c r="Z13" s="33"/>
     </row>
     <row r="14" spans="3:26" ht="34.950000000000003" customHeight="1">
-      <c r="C14" s="110">
+      <c r="C14" s="42">
         <v>8</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="65"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="112"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="112"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="113" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="113"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
       <c r="P14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q14" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63"/>
+        <v>37</v>
+      </c>
+      <c r="Q14" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="R14" s="112"/>
+      <c r="S14" s="112"/>
+      <c r="T14" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
       <c r="W14" s="32"/>
       <c r="X14" s="31"/>
       <c r="Y14" s="31"/>
       <c r="Z14" s="33"/>
     </row>
     <row r="15" spans="3:26" ht="34.950000000000003" customHeight="1">
-      <c r="C15" s="110">
+      <c r="C15" s="42">
         <v>9</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="113"/>
-      <c r="F15" s="118"/>
+        <v>46</v>
+      </c>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="113"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="111" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="97" t="s">
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
       <c r="P15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
+        <v>37</v>
+      </c>
+      <c r="Q15" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
       <c r="W15" s="32"/>
       <c r="X15" s="31"/>
       <c r="Y15" s="31"/>
       <c r="Z15" s="33"/>
     </row>
     <row r="16" spans="3:26" ht="34.950000000000003" customHeight="1">
-      <c r="C16" s="110">
+      <c r="C16" s="42">
         <v>10</v>
       </c>
-      <c r="D16" s="109" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
+      <c r="D16" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
       <c r="P16" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
+        <v>44</v>
+      </c>
+      <c r="Q16" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
       <c r="W16" s="32"/>
       <c r="X16" s="31"/>
       <c r="Y16" s="31"/>
       <c r="Z16" s="33"/>
     </row>
     <row r="17" spans="3:26" ht="34.950000000000003" customHeight="1">
-      <c r="C17" s="110">
+      <c r="C17" s="42">
         <v>11</v>
       </c>
-      <c r="D17" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
+      <c r="D17" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
       <c r="P17" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q17" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
+        <v>44</v>
+      </c>
+      <c r="Q17" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
       <c r="W17" s="32"/>
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
       <c r="Z17" s="33"/>
     </row>
     <row r="18" spans="3:26" ht="34.950000000000003" customHeight="1">
-      <c r="C18" s="110">
+      <c r="C18" s="42">
         <v>12</v>
       </c>
-      <c r="D18" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q18" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
+      <c r="D18" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
       <c r="W18" s="32"/>
       <c r="X18" s="31"/>
       <c r="Y18" s="31"/>
       <c r="Z18" s="33"/>
     </row>
     <row r="19" spans="3:26" ht="34.950000000000003" customHeight="1">
-      <c r="C19" s="110"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
       <c r="P19" s="34"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
       <c r="W19" s="32"/>
       <c r="X19" s="31"/>
       <c r="Y19" s="31"/>
       <c r="Z19" s="33"/>
     </row>
     <row r="20" spans="3:26" ht="34.950000000000003" customHeight="1">
-      <c r="C20" s="110"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
       <c r="P20" s="34"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="63"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
       <c r="W20" s="32"/>
       <c r="X20" s="31"/>
       <c r="Y20" s="31"/>
@@ -3395,25 +3401,25 @@
     </row>
     <row r="21" spans="3:26" ht="34.950000000000003" customHeight="1">
       <c r="C21" s="37"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
       <c r="P21" s="34"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="108"/>
-      <c r="S21" s="108"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="63"/>
-      <c r="V21" s="63"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
       <c r="W21" s="38"/>
       <c r="X21" s="39"/>
       <c r="Y21" s="39"/>
@@ -3421,25 +3427,25 @@
     </row>
     <row r="22" spans="3:26" ht="34.950000000000003" customHeight="1">
       <c r="C22" s="37"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
       <c r="P22" s="34"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="108"/>
-      <c r="S22" s="108"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
-      <c r="V22" s="63"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
       <c r="W22" s="38"/>
       <c r="X22" s="39"/>
       <c r="Y22" s="39"/>
@@ -3447,55 +3453,55 @@
     </row>
     <row r="23" spans="3:26" ht="34.950000000000003" customHeight="1">
       <c r="C23" s="37"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="108"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
       <c r="P23" s="34"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="108"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="63"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="67"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="80"/>
     </row>
     <row r="24" spans="3:26" ht="34.950000000000003" customHeight="1">
       <c r="C24" s="37"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
       <c r="P24" s="34"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="108"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="108"/>
-      <c r="V24" s="108"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="67"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="80"/>
     </row>
     <row r="25" spans="3:26">
       <c r="C25" s="19"/>
@@ -4123,29 +4129,29 @@
     </row>
     <row r="49" spans="3:26" ht="18.600000000000001" thickBot="1">
       <c r="C49" s="11"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="94"/>
-      <c r="L49" s="94"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="94"/>
-      <c r="O49" s="94"/>
-      <c r="P49" s="94"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="69"/>
       <c r="Q49" s="14"/>
       <c r="R49" s="14"/>
       <c r="S49" s="14"/>
       <c r="T49" s="14"/>
       <c r="U49" s="14"/>
       <c r="V49" s="14"/>
-      <c r="W49" s="94"/>
-      <c r="X49" s="94"/>
-      <c r="Y49" s="94"/>
-      <c r="Z49" s="95"/>
+      <c r="W49" s="69"/>
+      <c r="X49" s="69"/>
+      <c r="Y49" s="69"/>
+      <c r="Z49" s="70"/>
     </row>
     <row r="52" spans="3:26">
       <c r="Q52" s="30"/>
@@ -4169,20 +4175,95 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="132">
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="C2:Z2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="W5:Z6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="Q5:S6"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="M8:O8"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="G49:I49"/>
     <mergeCell ref="J49:L49"/>
@@ -4207,100 +4288,25 @@
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="G20:I20"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="C2:Z2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="W5:Z6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="Q5:S6"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G14:I14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4313,7 +4319,7 @@
   <dimension ref="B1:X12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:H12"/>
+      <selection activeCell="O7" sqref="O7:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4330,73 +4336,73 @@
   <sheetData>
     <row r="1" spans="2:24" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:24" ht="47.4" customHeight="1">
-      <c r="B2" s="102" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="104"/>
+      <c r="B2" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="127"/>
     </row>
     <row r="3" spans="2:24" ht="47.4" customHeight="1" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73"/>
+      <c r="C3" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93"/>
       <c r="G3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
+      <c r="H3" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="92"/>
+      <c r="J3" s="93"/>
       <c r="K3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
+      <c r="L3" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
       <c r="O3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="80">
+      <c r="P3" s="100">
         <f>履歴情報!F3</f>
         <v>45041</v>
       </c>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="81"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="101"/>
     </row>
     <row r="4" spans="2:24" ht="18.600000000000001" thickBot="1">
       <c r="B4" s="8"/>
@@ -4424,144 +4430,144 @@
       <c r="X4" s="9"/>
     </row>
     <row r="5" spans="2:24">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98" t="s">
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98" t="s">
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98" t="s">
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98" t="s">
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98" t="s">
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98" t="s">
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="101"/>
+      <c r="V5" s="118"/>
+      <c r="W5" s="118"/>
+      <c r="X5" s="119"/>
     </row>
     <row r="6" spans="2:24" ht="18.600000000000001" thickBot="1">
-      <c r="B6" s="121"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="122"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="120"/>
+      <c r="W6" s="120"/>
+      <c r="X6" s="121"/>
     </row>
     <row r="7" spans="2:24" ht="84.6" customHeight="1">
-      <c r="B7" s="123">
+      <c r="B7" s="43">
         <v>1</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="127" t="s">
+      <c r="D7" s="130"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="128" t="s">
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="128" t="s">
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128" t="s">
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="130" t="s">
+      <c r="P7" s="134"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="131"/>
-      <c r="T7" s="132"/>
-      <c r="U7" s="133"/>
-      <c r="V7" s="134"/>
-      <c r="W7" s="134"/>
-      <c r="X7" s="135"/>
+      <c r="S7" s="139"/>
+      <c r="T7" s="140"/>
+      <c r="U7" s="122"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="124"/>
     </row>
     <row r="8" spans="2:24" ht="47.4" customHeight="1">
       <c r="B8" s="29">
         <v>2</v>
       </c>
-      <c r="C8" s="99" t="s">
-        <v>50</v>
+      <c r="C8" s="135" t="s">
+        <v>45</v>
       </c>
       <c r="D8" s="136"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="99" t="s">
-        <v>49</v>
+      <c r="E8" s="137"/>
+      <c r="F8" s="135" t="s">
+        <v>44</v>
       </c>
       <c r="G8" s="136"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="99" t="s">
-        <v>49</v>
+      <c r="H8" s="137"/>
+      <c r="I8" s="135" t="s">
+        <v>44</v>
       </c>
       <c r="J8" s="136"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="99" t="s">
-        <v>49</v>
+      <c r="K8" s="137"/>
+      <c r="L8" s="135" t="s">
+        <v>44</v>
       </c>
       <c r="M8" s="136"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="99" t="s">
-        <v>49</v>
+      <c r="N8" s="137"/>
+      <c r="O8" s="135" t="s">
+        <v>44</v>
       </c>
       <c r="P8" s="136"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="99" t="s">
-        <v>49</v>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="135" t="s">
+        <v>44</v>
       </c>
       <c r="S8" s="136"/>
-      <c r="T8" s="100"/>
+      <c r="T8" s="137"/>
       <c r="U8" s="26"/>
       <c r="V8" s="27"/>
       <c r="W8" s="27"/>
@@ -4571,36 +4577,36 @@
       <c r="B9" s="29">
         <v>3</v>
       </c>
-      <c r="C9" s="120" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
+      <c r="C9" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
       <c r="U9" s="26"/>
       <c r="V9" s="27"/>
       <c r="W9" s="27"/>
@@ -4610,36 +4616,36 @@
       <c r="B10" s="29">
         <v>4</v>
       </c>
-      <c r="C10" s="120" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
+      <c r="C10" s="117" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
       <c r="U10" s="26"/>
       <c r="V10" s="27"/>
       <c r="W10" s="27"/>
@@ -4649,100 +4655,98 @@
       <c r="B11" s="29">
         <v>5</v>
       </c>
-      <c r="C11" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="S11" s="120"/>
-      <c r="T11" s="120"/>
+      <c r="C11" s="117" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11" s="117"/>
+      <c r="T11" s="117"/>
       <c r="U11" s="26"/>
       <c r="V11" s="27"/>
       <c r="W11" s="27"/>
       <c r="X11" s="28"/>
     </row>
     <row r="12" spans="2:24" ht="45.6" customHeight="1" thickBot="1">
-      <c r="B12" s="137">
+      <c r="B12" s="44">
         <v>6</v>
       </c>
-      <c r="C12" s="138" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="138" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" s="138"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="138" t="s">
-        <v>49</v>
-      </c>
-      <c r="P12" s="138"/>
-      <c r="Q12" s="138"/>
-      <c r="R12" s="138" t="s">
-        <v>49</v>
-      </c>
-      <c r="S12" s="138"/>
-      <c r="T12" s="138"/>
-      <c r="U12" s="139"/>
-      <c r="V12" s="140"/>
-      <c r="W12" s="140"/>
-      <c r="X12" s="141"/>
+      <c r="C12" s="116" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" s="116"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
     <mergeCell ref="U5:X6"/>
     <mergeCell ref="U7:X7"/>
     <mergeCell ref="B2:X2"/>
@@ -4759,22 +4763,24 @@
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="R5:T6"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
